--- a/database/industries/lastic/petayer/cost/yearly.xlsx
+++ b/database/industries/lastic/petayer/cost/yearly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\lastic\petayer\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\lastic\petayer\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78858374-D3A3-4B42-90E5-438646D7324A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6921A06-0846-4CB0-BB79-261205D5361D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="54">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -34,9 +34,6 @@
     <t>بهای تمام شده</t>
   </si>
   <si>
-    <t>دوازده ماهه منتهی به 1396/12</t>
-  </si>
-  <si>
     <t>دوازده ماهه منتهی به 1397/12</t>
   </si>
   <si>
@@ -49,6 +46,9 @@
     <t>دوازده ماهه منتهی به 1400/12</t>
   </si>
   <si>
+    <t>دوازده ماهه منتهی به 1401/12</t>
+  </si>
+  <si>
     <t>مواد مستقیم مصرفی</t>
   </si>
   <si>
@@ -98,9 +98,6 @@
   </si>
   <si>
     <t>تن</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>کائوچوی طبیعی</t>
@@ -644,12 +641,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -659,7 +656,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -671,7 +668,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -683,7 +680,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -693,7 +690,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -705,7 +702,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -717,7 +714,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -727,7 +724,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -749,7 +746,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -759,105 +756,105 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
-        <v>1338177</v>
+        <v>1901856</v>
       </c>
       <c r="F10" s="9">
-        <v>1901856</v>
+        <v>3548317</v>
       </c>
       <c r="G10" s="9">
-        <v>3548317</v>
+        <v>5548433</v>
       </c>
       <c r="H10" s="9">
-        <v>5548433</v>
+        <v>10589444</v>
       </c>
       <c r="I10" s="9">
-        <v>10589444</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+        <v>14090608</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>215762</v>
+        <v>216618</v>
       </c>
       <c r="F11" s="11">
-        <v>216618</v>
+        <v>321308</v>
       </c>
       <c r="G11" s="11">
-        <v>321308</v>
+        <v>559921</v>
       </c>
       <c r="H11" s="11">
-        <v>559921</v>
+        <v>794925</v>
       </c>
       <c r="I11" s="11">
-        <v>794925</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1282372</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
-        <v>468286</v>
+        <v>469240</v>
       </c>
       <c r="F12" s="9">
-        <v>469240</v>
+        <v>689463</v>
       </c>
       <c r="G12" s="9">
-        <v>689463</v>
+        <v>1021649</v>
       </c>
       <c r="H12" s="9">
-        <v>1021649</v>
+        <v>1660736</v>
       </c>
       <c r="I12" s="9">
-        <v>1660736</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2369557</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
-        <v>2022225</v>
+        <v>2587714</v>
       </c>
       <c r="F13" s="13">
-        <v>2587714</v>
+        <v>4559088</v>
       </c>
       <c r="G13" s="13">
-        <v>4559088</v>
+        <v>7130003</v>
       </c>
       <c r="H13" s="13">
-        <v>7130003</v>
+        <v>13045105</v>
       </c>
       <c r="I13" s="13">
-        <v>13045105</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+        <v>17742537</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9">
-        <v>-35017</v>
+        <v>-28504</v>
       </c>
       <c r="F14" s="9">
-        <v>-28504</v>
+        <v>0</v>
       </c>
       <c r="G14" s="9">
         <v>0</v>
@@ -869,161 +866,161 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>14</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13">
-        <v>1987208</v>
+        <v>2559210</v>
       </c>
       <c r="F15" s="13">
-        <v>2559210</v>
+        <v>4559088</v>
       </c>
       <c r="G15" s="13">
-        <v>4559088</v>
+        <v>7130003</v>
       </c>
       <c r="H15" s="13">
-        <v>7130003</v>
+        <v>13045105</v>
       </c>
       <c r="I15" s="13">
-        <v>13045105</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+        <v>17742537</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
-        <v>-693</v>
+        <v>-18520</v>
       </c>
       <c r="F16" s="9">
-        <v>-18520</v>
+        <v>-3717</v>
       </c>
       <c r="G16" s="9">
-        <v>-3717</v>
+        <v>-18475</v>
       </c>
       <c r="H16" s="9">
-        <v>-18475</v>
+        <v>-65628</v>
       </c>
       <c r="I16" s="9">
-        <v>-65628</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-21198</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11">
-        <v>-19188</v>
+        <v>-12016</v>
       </c>
       <c r="F17" s="11">
-        <v>-12016</v>
+        <v>-30091</v>
       </c>
       <c r="G17" s="11">
-        <v>-30091</v>
+        <v>-25387</v>
       </c>
       <c r="H17" s="11">
-        <v>-25387</v>
+        <v>-43488</v>
       </c>
       <c r="I17" s="11">
-        <v>-43488</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-47915</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15">
-        <v>1967327</v>
+        <v>2528674</v>
       </c>
       <c r="F18" s="15">
-        <v>2528674</v>
+        <v>4525280</v>
       </c>
       <c r="G18" s="15">
-        <v>4525280</v>
+        <v>7086141</v>
       </c>
       <c r="H18" s="15">
-        <v>7086141</v>
+        <v>12935989</v>
       </c>
       <c r="I18" s="15">
-        <v>12935989</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+        <v>17673424</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11">
-        <v>133907</v>
+        <v>127039</v>
       </c>
       <c r="F19" s="11">
-        <v>127039</v>
+        <v>80205</v>
       </c>
       <c r="G19" s="11">
-        <v>80205</v>
+        <v>107076</v>
       </c>
       <c r="H19" s="11">
-        <v>107076</v>
+        <v>127637</v>
       </c>
       <c r="I19" s="11">
-        <v>127637</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+        <v>535724</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9">
-        <v>-127039</v>
+        <v>-80205</v>
       </c>
       <c r="F20" s="9">
-        <v>-80205</v>
+        <v>-107076</v>
       </c>
       <c r="G20" s="9">
-        <v>-107076</v>
+        <v>-127637</v>
       </c>
       <c r="H20" s="9">
-        <v>-127637</v>
+        <v>-535724</v>
       </c>
       <c r="I20" s="9">
-        <v>-535724</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-310596</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>20</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13">
-        <v>1974195</v>
+        <v>2575508</v>
       </c>
       <c r="F21" s="13">
-        <v>2575508</v>
+        <v>4498409</v>
       </c>
       <c r="G21" s="13">
-        <v>4498409</v>
+        <v>7065580</v>
       </c>
       <c r="H21" s="13">
-        <v>7065580</v>
+        <v>12527902</v>
       </c>
       <c r="I21" s="13">
-        <v>12527902</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+        <v>17898552</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>21</v>
       </c>
@@ -1045,29 +1042,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>22</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13">
-        <v>1974195</v>
+        <v>2575508</v>
       </c>
       <c r="F23" s="13">
-        <v>2575508</v>
+        <v>4498409</v>
       </c>
       <c r="G23" s="13">
-        <v>4498409</v>
+        <v>7065580</v>
       </c>
       <c r="H23" s="13">
-        <v>7065580</v>
+        <v>12527902</v>
       </c>
       <c r="I23" s="13">
-        <v>12527902</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+        <v>17898552</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1077,7 +1074,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1087,7 +1084,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1097,7 +1094,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
         <v>23</v>
       </c>
@@ -1119,7 +1116,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1129,7 +1126,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>24</v>
       </c>
@@ -1137,141 +1134,141 @@
         <v>25</v>
       </c>
       <c r="D29" s="9"/>
-      <c r="E29" s="9" t="s">
+      <c r="E29" s="9">
+        <v>127</v>
+      </c>
+      <c r="F29" s="9">
+        <v>110</v>
+      </c>
+      <c r="G29" s="9">
+        <v>139</v>
+      </c>
+      <c r="H29" s="9">
+        <v>684</v>
+      </c>
+      <c r="I29" s="9">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B30" s="10" t="s">
         <v>26</v>
-      </c>
-      <c r="F29" s="9">
-        <v>127</v>
-      </c>
-      <c r="G29" s="9">
-        <v>110</v>
-      </c>
-      <c r="H29" s="9">
-        <v>139</v>
-      </c>
-      <c r="I29" s="9">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="10" t="s">
-        <v>27</v>
       </c>
       <c r="C30" s="11" t="s">
         <v>25</v>
       </c>
       <c r="D30" s="11"/>
-      <c r="E30" s="11" t="s">
-        <v>26</v>
+      <c r="E30" s="11">
+        <v>193</v>
       </c>
       <c r="F30" s="11">
-        <v>193</v>
+        <v>1473</v>
       </c>
       <c r="G30" s="11">
-        <v>1473</v>
+        <v>3787</v>
       </c>
       <c r="H30" s="11">
-        <v>3787</v>
+        <v>4041</v>
       </c>
       <c r="I30" s="11">
-        <v>4041</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C31" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D31" s="9"/>
-      <c r="E31" s="9" t="s">
-        <v>26</v>
+      <c r="E31" s="9">
+        <v>467</v>
       </c>
       <c r="F31" s="9">
-        <v>467</v>
+        <v>1698</v>
       </c>
       <c r="G31" s="9">
-        <v>1698</v>
+        <v>1597</v>
       </c>
       <c r="H31" s="9">
-        <v>1597</v>
+        <v>1009</v>
       </c>
       <c r="I31" s="9">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C32" s="11" t="s">
         <v>25</v>
       </c>
       <c r="D32" s="11"/>
-      <c r="E32" s="11" t="s">
-        <v>26</v>
+      <c r="E32" s="11">
+        <v>516</v>
       </c>
       <c r="F32" s="11">
-        <v>516</v>
+        <v>960</v>
       </c>
       <c r="G32" s="11">
-        <v>960</v>
+        <v>1119</v>
       </c>
       <c r="H32" s="11">
-        <v>1119</v>
+        <v>599</v>
       </c>
       <c r="I32" s="11">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C33" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D33" s="9"/>
-      <c r="E33" s="9" t="s">
-        <v>26</v>
+      <c r="E33" s="9">
+        <v>583</v>
       </c>
       <c r="F33" s="9">
-        <v>583</v>
+        <v>1253</v>
       </c>
       <c r="G33" s="9">
-        <v>1253</v>
+        <v>2809</v>
       </c>
       <c r="H33" s="9">
-        <v>2809</v>
+        <v>6035</v>
       </c>
       <c r="I33" s="9">
-        <v>6035</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+        <v>6363</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
       <c r="E34" s="13">
-        <v>0</v>
+        <v>1886</v>
       </c>
       <c r="F34" s="13">
-        <v>1886</v>
+        <v>5494</v>
       </c>
       <c r="G34" s="13">
-        <v>5494</v>
+        <v>9451</v>
       </c>
       <c r="H34" s="13">
-        <v>9451</v>
+        <v>12368</v>
       </c>
       <c r="I34" s="13">
-        <v>12368</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+        <v>9785</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1281,7 +1278,7 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1291,7 +1288,7 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1301,9 +1298,9 @@
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B38" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
@@ -1323,7 +1320,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1333,7 +1330,7 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="8" t="s">
         <v>24</v>
       </c>
@@ -1341,141 +1338,141 @@
         <v>25</v>
       </c>
       <c r="D40" s="9"/>
-      <c r="E40" s="9" t="s">
+      <c r="E40" s="9">
+        <v>1425</v>
+      </c>
+      <c r="F40" s="9">
+        <v>1679</v>
+      </c>
+      <c r="G40" s="9">
+        <v>2450</v>
+      </c>
+      <c r="H40" s="9">
+        <v>1441</v>
+      </c>
+      <c r="I40" s="9">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B41" s="10" t="s">
         <v>26</v>
-      </c>
-      <c r="F40" s="9">
-        <v>1425</v>
-      </c>
-      <c r="G40" s="9">
-        <v>1679</v>
-      </c>
-      <c r="H40" s="9">
-        <v>2450</v>
-      </c>
-      <c r="I40" s="9">
-        <v>1441</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B41" s="10" t="s">
-        <v>27</v>
       </c>
       <c r="C41" s="11" t="s">
         <v>25</v>
       </c>
       <c r="D41" s="11"/>
-      <c r="E41" s="11" t="s">
-        <v>26</v>
+      <c r="E41" s="11">
+        <v>5418</v>
       </c>
       <c r="F41" s="11">
-        <v>5418</v>
+        <v>7305</v>
       </c>
       <c r="G41" s="11">
-        <v>7305</v>
+        <v>4504</v>
       </c>
       <c r="H41" s="11">
-        <v>4504</v>
+        <v>2460</v>
       </c>
       <c r="I41" s="11">
-        <v>2460</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+        <v>4738</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C42" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D42" s="9"/>
-      <c r="E42" s="9" t="s">
-        <v>26</v>
+      <c r="E42" s="9">
+        <v>6522</v>
       </c>
       <c r="F42" s="9">
-        <v>6522</v>
+        <v>6674</v>
       </c>
       <c r="G42" s="9">
-        <v>6674</v>
+        <v>7031</v>
       </c>
       <c r="H42" s="9">
-        <v>7031</v>
+        <v>7119</v>
       </c>
       <c r="I42" s="9">
-        <v>7119</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+        <v>9211</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C43" s="11" t="s">
         <v>25</v>
       </c>
       <c r="D43" s="11"/>
-      <c r="E43" s="11" t="s">
-        <v>26</v>
+      <c r="E43" s="11">
+        <v>5909</v>
       </c>
       <c r="F43" s="11">
-        <v>5909</v>
+        <v>6798</v>
       </c>
       <c r="G43" s="11">
-        <v>6798</v>
+        <v>6928</v>
       </c>
       <c r="H43" s="11">
-        <v>6928</v>
+        <v>7563</v>
       </c>
       <c r="I43" s="11">
-        <v>7563</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+        <v>7666</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C44" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D44" s="9"/>
-      <c r="E44" s="9" t="s">
-        <v>26</v>
+      <c r="E44" s="9">
+        <v>5052</v>
       </c>
       <c r="F44" s="9">
-        <v>5052</v>
+        <v>7121</v>
       </c>
       <c r="G44" s="9">
-        <v>7121</v>
+        <v>9415</v>
       </c>
       <c r="H44" s="9">
-        <v>9415</v>
+        <v>6264</v>
       </c>
       <c r="I44" s="9">
-        <v>6264</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+        <v>5025</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C45" s="13"/>
       <c r="D45" s="13"/>
       <c r="E45" s="13">
-        <v>0</v>
+        <v>24326</v>
       </c>
       <c r="F45" s="13">
-        <v>24326</v>
+        <v>29577</v>
       </c>
       <c r="G45" s="13">
-        <v>29577</v>
+        <v>30328</v>
       </c>
       <c r="H45" s="13">
-        <v>30328</v>
+        <v>24847</v>
       </c>
       <c r="I45" s="13">
-        <v>24847</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+        <v>28229</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1485,7 +1482,7 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1495,7 +1492,7 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -1505,9 +1502,9 @@
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
     </row>
-    <row r="49" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B49" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
@@ -1527,7 +1524,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1537,7 +1534,7 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="8" t="s">
         <v>24</v>
       </c>
@@ -1545,141 +1542,141 @@
         <v>25</v>
       </c>
       <c r="D51" s="9"/>
-      <c r="E51" s="9" t="s">
+      <c r="E51" s="9">
+        <v>1442</v>
+      </c>
+      <c r="F51" s="9">
+        <v>1649</v>
+      </c>
+      <c r="G51" s="9">
+        <v>1905</v>
+      </c>
+      <c r="H51" s="9">
+        <v>1597</v>
+      </c>
+      <c r="I51" s="9">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B52" s="10" t="s">
         <v>26</v>
-      </c>
-      <c r="F51" s="9">
-        <v>1442</v>
-      </c>
-      <c r="G51" s="9">
-        <v>1649</v>
-      </c>
-      <c r="H51" s="9">
-        <v>1905</v>
-      </c>
-      <c r="I51" s="9">
-        <v>1597</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B52" s="10" t="s">
-        <v>27</v>
       </c>
       <c r="C52" s="11" t="s">
         <v>25</v>
       </c>
       <c r="D52" s="11"/>
-      <c r="E52" s="11" t="s">
-        <v>26</v>
+      <c r="E52" s="11">
+        <v>4103</v>
       </c>
       <c r="F52" s="11">
-        <v>4103</v>
+        <v>4991</v>
       </c>
       <c r="G52" s="11">
-        <v>4991</v>
+        <v>5713</v>
       </c>
       <c r="H52" s="11">
-        <v>5713</v>
+        <v>5356</v>
       </c>
       <c r="I52" s="11">
-        <v>5356</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+        <v>5531</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C53" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D53" s="9"/>
-      <c r="E53" s="9" t="s">
-        <v>26</v>
+      <c r="E53" s="9">
+        <v>5299</v>
       </c>
       <c r="F53" s="9">
-        <v>5299</v>
+        <v>6774</v>
       </c>
       <c r="G53" s="9">
-        <v>6774</v>
+        <v>7619</v>
       </c>
       <c r="H53" s="9">
-        <v>7619</v>
+        <v>7331</v>
       </c>
       <c r="I53" s="9">
-        <v>7331</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+        <v>7582</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C54" s="11" t="s">
         <v>25</v>
       </c>
       <c r="D54" s="11"/>
-      <c r="E54" s="11" t="s">
-        <v>26</v>
+      <c r="E54" s="11">
+        <v>5465</v>
       </c>
       <c r="F54" s="11">
-        <v>5465</v>
+        <v>6639</v>
       </c>
       <c r="G54" s="11">
-        <v>6639</v>
+        <v>7448</v>
       </c>
       <c r="H54" s="11">
-        <v>7448</v>
+        <v>7210</v>
       </c>
       <c r="I54" s="11">
-        <v>7210</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+        <v>7609</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C55" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D55" s="9"/>
-      <c r="E55" s="9" t="s">
-        <v>26</v>
+      <c r="E55" s="9">
+        <v>4307</v>
       </c>
       <c r="F55" s="9">
-        <v>4307</v>
+        <v>5565</v>
       </c>
       <c r="G55" s="9">
-        <v>5565</v>
+        <v>6189</v>
       </c>
       <c r="H55" s="9">
-        <v>6189</v>
+        <v>5936</v>
       </c>
       <c r="I55" s="9">
-        <v>5936</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+        <v>6212</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C56" s="13"/>
       <c r="D56" s="13"/>
       <c r="E56" s="13">
-        <v>0</v>
+        <v>20616</v>
       </c>
       <c r="F56" s="13">
-        <v>20616</v>
+        <v>25618</v>
       </c>
       <c r="G56" s="13">
-        <v>25618</v>
+        <v>28874</v>
       </c>
       <c r="H56" s="13">
-        <v>28874</v>
+        <v>27430</v>
       </c>
       <c r="I56" s="13">
-        <v>27430</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+        <v>28474</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -1689,7 +1686,7 @@
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -1699,7 +1696,7 @@
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1709,9 +1706,9 @@
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
     </row>
-    <row r="60" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B60" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C60" s="6"/>
       <c r="D60" s="6"/>
@@ -1731,7 +1728,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -1741,7 +1738,7 @@
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="8" t="s">
         <v>24</v>
       </c>
@@ -1749,141 +1746,141 @@
         <v>25</v>
       </c>
       <c r="D62" s="9"/>
-      <c r="E62" s="9" t="s">
+      <c r="E62" s="9">
+        <v>110</v>
+      </c>
+      <c r="F62" s="9">
+        <v>140</v>
+      </c>
+      <c r="G62" s="9">
+        <v>684</v>
+      </c>
+      <c r="H62" s="9">
+        <v>528</v>
+      </c>
+      <c r="I62" s="9">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B63" s="10" t="s">
         <v>26</v>
-      </c>
-      <c r="F62" s="9">
-        <v>110</v>
-      </c>
-      <c r="G62" s="9">
-        <v>140</v>
-      </c>
-      <c r="H62" s="9">
-        <v>684</v>
-      </c>
-      <c r="I62" s="9">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B63" s="10" t="s">
-        <v>27</v>
       </c>
       <c r="C63" s="11" t="s">
         <v>25</v>
       </c>
       <c r="D63" s="11"/>
-      <c r="E63" s="11" t="s">
-        <v>26</v>
+      <c r="E63" s="11">
+        <v>1508</v>
       </c>
       <c r="F63" s="11">
-        <v>1508</v>
+        <v>3787</v>
       </c>
       <c r="G63" s="11">
-        <v>3787</v>
+        <v>2578</v>
       </c>
       <c r="H63" s="11">
-        <v>2578</v>
+        <v>1145</v>
       </c>
       <c r="I63" s="11">
-        <v>1145</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C64" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D64" s="9"/>
-      <c r="E64" s="9" t="s">
-        <v>26</v>
+      <c r="E64" s="9">
+        <v>1690</v>
       </c>
       <c r="F64" s="9">
-        <v>1690</v>
+        <v>1598</v>
       </c>
       <c r="G64" s="9">
-        <v>1598</v>
+        <v>1009</v>
       </c>
       <c r="H64" s="9">
-        <v>1009</v>
+        <v>797</v>
       </c>
       <c r="I64" s="9">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2426</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C65" s="11" t="s">
         <v>25</v>
       </c>
       <c r="D65" s="11"/>
-      <c r="E65" s="11" t="s">
-        <v>26</v>
+      <c r="E65" s="11">
+        <v>960</v>
       </c>
       <c r="F65" s="11">
-        <v>960</v>
+        <v>1119</v>
       </c>
       <c r="G65" s="11">
-        <v>1119</v>
+        <v>599</v>
       </c>
       <c r="H65" s="11">
-        <v>599</v>
+        <v>952</v>
       </c>
       <c r="I65" s="11">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C66" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D66" s="9"/>
-      <c r="E66" s="9" t="s">
-        <v>26</v>
+      <c r="E66" s="9">
+        <v>1328</v>
       </c>
       <c r="F66" s="9">
-        <v>1328</v>
+        <v>2809</v>
       </c>
       <c r="G66" s="9">
-        <v>2809</v>
+        <v>6035</v>
       </c>
       <c r="H66" s="9">
-        <v>6035</v>
+        <v>6363</v>
       </c>
       <c r="I66" s="9">
-        <v>6363</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+        <v>5176</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C67" s="13"/>
       <c r="D67" s="13"/>
       <c r="E67" s="13">
-        <v>0</v>
+        <v>5596</v>
       </c>
       <c r="F67" s="13">
-        <v>5596</v>
+        <v>9453</v>
       </c>
       <c r="G67" s="13">
-        <v>9453</v>
+        <v>10905</v>
       </c>
       <c r="H67" s="13">
-        <v>10905</v>
+        <v>9785</v>
       </c>
       <c r="I67" s="13">
-        <v>9785</v>
-      </c>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+        <v>9540</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -1893,7 +1890,7 @@
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -1903,7 +1900,7 @@
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -1913,9 +1910,9 @@
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
     </row>
-    <row r="71" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B71" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C71" s="6"/>
       <c r="D71" s="6"/>
@@ -1935,7 +1932,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -1945,149 +1942,149 @@
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D73" s="9"/>
-      <c r="E73" s="9" t="s">
+      <c r="E73" s="9">
+        <v>20135</v>
+      </c>
+      <c r="F73" s="9">
+        <v>28253</v>
+      </c>
+      <c r="G73" s="9">
+        <v>82405</v>
+      </c>
+      <c r="H73" s="9">
+        <v>398687</v>
+      </c>
+      <c r="I73" s="9">
+        <v>337675</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B74" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F73" s="9">
-        <v>20135</v>
-      </c>
-      <c r="G73" s="9">
-        <v>28253</v>
-      </c>
-      <c r="H73" s="9">
-        <v>82405</v>
-      </c>
-      <c r="I73" s="9">
-        <v>398687</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B74" s="10" t="s">
+      <c r="C74" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D74" s="11"/>
+      <c r="E74" s="11">
+        <v>15659</v>
+      </c>
+      <c r="F74" s="11">
+        <v>117443</v>
+      </c>
+      <c r="G74" s="11">
+        <v>449237</v>
+      </c>
+      <c r="H74" s="11">
+        <v>998085</v>
+      </c>
+      <c r="I74" s="11">
+        <v>450104</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B75" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C74" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D74" s="11"/>
-      <c r="E74" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F74" s="11">
-        <v>15659</v>
-      </c>
-      <c r="G74" s="11">
-        <v>117443</v>
-      </c>
-      <c r="H74" s="11">
-        <v>449237</v>
-      </c>
-      <c r="I74" s="11">
-        <v>998085</v>
-      </c>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B75" s="8" t="s">
+      <c r="C75" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D75" s="9"/>
+      <c r="E75" s="9">
+        <v>33899</v>
+      </c>
+      <c r="F75" s="9">
+        <v>223539</v>
+      </c>
+      <c r="G75" s="9">
+        <v>263220</v>
+      </c>
+      <c r="H75" s="9">
+        <v>329136</v>
+      </c>
+      <c r="I75" s="9">
+        <v>432886</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B76" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C75" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D75" s="9"/>
-      <c r="E75" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F75" s="9">
-        <v>33899</v>
-      </c>
-      <c r="G75" s="9">
-        <v>223539</v>
-      </c>
-      <c r="H75" s="9">
-        <v>263220</v>
-      </c>
-      <c r="I75" s="9">
-        <v>329136</v>
-      </c>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B76" s="10" t="s">
+      <c r="C76" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D76" s="11"/>
+      <c r="E76" s="11">
+        <v>23138</v>
+      </c>
+      <c r="F76" s="11">
+        <v>85962</v>
+      </c>
+      <c r="G76" s="11">
+        <v>107076</v>
+      </c>
+      <c r="H76" s="11">
+        <v>77233</v>
+      </c>
+      <c r="I76" s="11">
+        <v>266796</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B77" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C76" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D76" s="11"/>
-      <c r="E76" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F76" s="11">
-        <v>23138</v>
-      </c>
-      <c r="G76" s="11">
-        <v>85962</v>
-      </c>
-      <c r="H76" s="11">
-        <v>107076</v>
-      </c>
-      <c r="I76" s="11">
-        <v>77233</v>
-      </c>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B77" s="8" t="s">
-        <v>30</v>
-      </c>
       <c r="C77" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D77" s="9"/>
-      <c r="E77" s="9" t="s">
-        <v>26</v>
+      <c r="E77" s="9">
+        <v>44527</v>
       </c>
       <c r="F77" s="9">
-        <v>44527</v>
+        <v>106726</v>
       </c>
       <c r="G77" s="9">
-        <v>106726</v>
+        <v>367214</v>
       </c>
       <c r="H77" s="9">
-        <v>367214</v>
+        <v>1304016</v>
       </c>
       <c r="I77" s="9">
-        <v>1304016</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1395174</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C78" s="13"/>
       <c r="D78" s="13"/>
       <c r="E78" s="13">
-        <v>0</v>
+        <v>137358</v>
       </c>
       <c r="F78" s="13">
-        <v>137358</v>
+        <v>561923</v>
       </c>
       <c r="G78" s="13">
-        <v>561923</v>
+        <v>1269152</v>
       </c>
       <c r="H78" s="13">
-        <v>1269152</v>
+        <v>3107157</v>
       </c>
       <c r="I78" s="13">
-        <v>3107157</v>
-      </c>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2882635</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -2097,7 +2094,7 @@
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -2107,7 +2104,7 @@
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -2117,9 +2114,9 @@
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
     </row>
-    <row r="82" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B82" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
@@ -2139,7 +2136,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -2149,149 +2146,149 @@
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D84" s="9"/>
-      <c r="E84" s="9" t="s">
+      <c r="E84" s="9">
+        <v>330338</v>
+      </c>
+      <c r="F84" s="9">
+        <v>953500</v>
+      </c>
+      <c r="G84" s="9">
+        <v>1801281</v>
+      </c>
+      <c r="H84" s="9">
+        <v>1854214</v>
+      </c>
+      <c r="I84" s="9">
+        <v>2531293</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B85" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F84" s="9">
-        <v>330338</v>
-      </c>
-      <c r="G84" s="9">
-        <v>953500</v>
-      </c>
-      <c r="H84" s="9">
-        <v>1801281</v>
-      </c>
-      <c r="I84" s="9">
-        <v>1854214</v>
-      </c>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B85" s="10" t="s">
+      <c r="C85" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D85" s="11"/>
+      <c r="E85" s="11">
+        <v>439266</v>
+      </c>
+      <c r="F85" s="11">
+        <v>634327</v>
+      </c>
+      <c r="G85" s="11">
+        <v>1328061</v>
+      </c>
+      <c r="H85" s="11">
+        <v>1097676</v>
+      </c>
+      <c r="I85" s="11">
+        <v>2466396</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B86" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C85" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D85" s="11"/>
-      <c r="E85" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F85" s="11">
-        <v>439266</v>
-      </c>
-      <c r="G85" s="11">
-        <v>634327</v>
-      </c>
-      <c r="H85" s="11">
-        <v>1328061</v>
-      </c>
-      <c r="I85" s="11">
-        <v>1097676</v>
-      </c>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B86" s="8" t="s">
+      <c r="C86" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D86" s="9"/>
+      <c r="E86" s="9">
+        <v>696321</v>
+      </c>
+      <c r="F86" s="9">
+        <v>1032624</v>
+      </c>
+      <c r="G86" s="9">
+        <v>1413837</v>
+      </c>
+      <c r="H86" s="9">
+        <v>3242617</v>
+      </c>
+      <c r="I86" s="9">
+        <v>4290512</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B87" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C86" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D86" s="9"/>
-      <c r="E86" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F86" s="9">
-        <v>696321</v>
-      </c>
-      <c r="G86" s="9">
-        <v>1032624</v>
-      </c>
-      <c r="H86" s="9">
-        <v>1413837</v>
-      </c>
-      <c r="I86" s="9">
-        <v>3242617</v>
-      </c>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B87" s="10" t="s">
+      <c r="C87" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D87" s="11"/>
+      <c r="E87" s="11">
+        <v>415617</v>
+      </c>
+      <c r="F87" s="11">
+        <v>697629</v>
+      </c>
+      <c r="G87" s="11">
+        <v>823325</v>
+      </c>
+      <c r="H87" s="11">
+        <v>1957695</v>
+      </c>
+      <c r="I87" s="11">
+        <v>2733636</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B88" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C87" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D87" s="11"/>
-      <c r="E87" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F87" s="11">
-        <v>415617</v>
-      </c>
-      <c r="G87" s="11">
-        <v>697629</v>
-      </c>
-      <c r="H87" s="11">
-        <v>823325</v>
-      </c>
-      <c r="I87" s="11">
-        <v>1957695</v>
-      </c>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B88" s="8" t="s">
-        <v>30</v>
-      </c>
       <c r="C88" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D88" s="9"/>
-      <c r="E88" s="9" t="s">
-        <v>26</v>
+      <c r="E88" s="9">
+        <v>453293</v>
       </c>
       <c r="F88" s="9">
-        <v>453293</v>
+        <v>745943</v>
       </c>
       <c r="G88" s="9">
-        <v>745943</v>
+        <v>2019934</v>
       </c>
       <c r="H88" s="9">
-        <v>2019934</v>
+        <v>2212720</v>
       </c>
       <c r="I88" s="9">
-        <v>2212720</v>
-      </c>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2622308</v>
+      </c>
+    </row>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B89" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C89" s="13"/>
       <c r="D89" s="13"/>
       <c r="E89" s="13">
-        <v>0</v>
+        <v>2334835</v>
       </c>
       <c r="F89" s="13">
-        <v>2334835</v>
+        <v>4064023</v>
       </c>
       <c r="G89" s="13">
-        <v>4064023</v>
+        <v>7386438</v>
       </c>
       <c r="H89" s="13">
-        <v>7386438</v>
+        <v>10364922</v>
       </c>
       <c r="I89" s="13">
-        <v>10364922</v>
-      </c>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+        <v>14644145</v>
+      </c>
+    </row>
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -2301,7 +2298,7 @@
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -2311,7 +2308,7 @@
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -2321,9 +2318,9 @@
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
     </row>
-    <row r="93" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B93" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C93" s="6"/>
       <c r="D93" s="6"/>
@@ -2343,7 +2340,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -2353,149 +2350,149 @@
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B95" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D95" s="9"/>
-      <c r="E95" s="9" t="s">
+      <c r="E95" s="9">
+        <v>322220</v>
+      </c>
+      <c r="F95" s="9">
+        <v>899348</v>
+      </c>
+      <c r="G95" s="9">
+        <v>1484999</v>
+      </c>
+      <c r="H95" s="9">
+        <v>1915226</v>
+      </c>
+      <c r="I95" s="9">
+        <v>2350574</v>
+      </c>
+    </row>
+    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B96" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F95" s="9">
-        <v>322220</v>
-      </c>
-      <c r="G95" s="9">
-        <v>899348</v>
-      </c>
-      <c r="H95" s="9">
-        <v>1484999</v>
-      </c>
-      <c r="I95" s="9">
-        <v>1915226</v>
-      </c>
-    </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B96" s="10" t="s">
+      <c r="C96" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D96" s="11"/>
+      <c r="E96" s="11">
+        <v>334525</v>
+      </c>
+      <c r="F96" s="11">
+        <v>421943</v>
+      </c>
+      <c r="G96" s="11">
+        <v>779213</v>
+      </c>
+      <c r="H96" s="11">
+        <v>1645657</v>
+      </c>
+      <c r="I96" s="11">
+        <v>2712617</v>
+      </c>
+    </row>
+    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B97" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C96" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D96" s="11"/>
-      <c r="E96" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F96" s="11">
-        <v>334525</v>
-      </c>
-      <c r="G96" s="11">
-        <v>421943</v>
-      </c>
-      <c r="H96" s="11">
-        <v>779213</v>
-      </c>
-      <c r="I96" s="11">
-        <v>1645657</v>
-      </c>
-    </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B97" s="8" t="s">
+      <c r="C97" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D97" s="9"/>
+      <c r="E97" s="9">
+        <v>506334</v>
+      </c>
+      <c r="F97" s="9">
+        <v>993282</v>
+      </c>
+      <c r="G97" s="9">
+        <v>1347921</v>
+      </c>
+      <c r="H97" s="9">
+        <v>3138867</v>
+      </c>
+      <c r="I97" s="9">
+        <v>3626244</v>
+      </c>
+    </row>
+    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B98" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C97" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D97" s="9"/>
-      <c r="E97" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F97" s="9">
-        <v>506334</v>
-      </c>
-      <c r="G97" s="9">
-        <v>993282</v>
-      </c>
-      <c r="H97" s="9">
-        <v>1347921</v>
-      </c>
-      <c r="I97" s="9">
-        <v>3138867</v>
-      </c>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B98" s="10" t="s">
+      <c r="C98" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D98" s="11"/>
+      <c r="E98" s="11">
+        <v>352793</v>
+      </c>
+      <c r="F98" s="11">
+        <v>676515</v>
+      </c>
+      <c r="G98" s="11">
+        <v>853168</v>
+      </c>
+      <c r="H98" s="11">
+        <v>1768132</v>
+      </c>
+      <c r="I98" s="11">
+        <v>2657097</v>
+      </c>
+    </row>
+    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B99" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C98" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D98" s="11"/>
-      <c r="E98" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F98" s="11">
-        <v>352793</v>
-      </c>
-      <c r="G98" s="11">
-        <v>676515</v>
-      </c>
-      <c r="H98" s="11">
-        <v>853168</v>
-      </c>
-      <c r="I98" s="11">
-        <v>1768132</v>
-      </c>
-    </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B99" s="8" t="s">
-        <v>30</v>
-      </c>
       <c r="C99" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D99" s="9"/>
-      <c r="E99" s="9" t="s">
-        <v>26</v>
+      <c r="E99" s="9">
+        <v>385984</v>
       </c>
       <c r="F99" s="9">
-        <v>385984</v>
+        <v>557229</v>
       </c>
       <c r="G99" s="9">
-        <v>557229</v>
+        <v>1083132</v>
       </c>
       <c r="H99" s="9">
-        <v>1083132</v>
+        <v>2121562</v>
       </c>
       <c r="I99" s="9">
-        <v>2121562</v>
-      </c>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2744076</v>
+      </c>
+    </row>
+    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B100" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C100" s="13"/>
       <c r="D100" s="13"/>
       <c r="E100" s="13">
-        <v>0</v>
+        <v>1901856</v>
       </c>
       <c r="F100" s="13">
-        <v>1901856</v>
+        <v>3548317</v>
       </c>
       <c r="G100" s="13">
-        <v>3548317</v>
+        <v>5548433</v>
       </c>
       <c r="H100" s="13">
-        <v>5548433</v>
+        <v>10589444</v>
       </c>
       <c r="I100" s="13">
-        <v>10589444</v>
-      </c>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+        <v>14090608</v>
+      </c>
+    </row>
+    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
@@ -2505,7 +2502,7 @@
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -2515,7 +2512,7 @@
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -2525,9 +2522,9 @@
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
     </row>
-    <row r="104" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B104" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C104" s="6"/>
       <c r="D104" s="6"/>
@@ -2547,7 +2544,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -2557,149 +2554,149 @@
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B106" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D106" s="9"/>
-      <c r="E106" s="9" t="s">
+      <c r="E106" s="9">
+        <v>28253</v>
+      </c>
+      <c r="F106" s="9">
+        <v>82405</v>
+      </c>
+      <c r="G106" s="9">
+        <v>398687</v>
+      </c>
+      <c r="H106" s="9">
+        <v>337675</v>
+      </c>
+      <c r="I106" s="9">
+        <v>518394</v>
+      </c>
+    </row>
+    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B107" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F106" s="9">
-        <v>28253</v>
-      </c>
-      <c r="G106" s="9">
-        <v>82405</v>
-      </c>
-      <c r="H106" s="9">
-        <v>398687</v>
-      </c>
-      <c r="I106" s="9">
-        <v>337675</v>
-      </c>
-    </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B107" s="10" t="s">
+      <c r="C107" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D107" s="11"/>
+      <c r="E107" s="11">
+        <v>120400</v>
+      </c>
+      <c r="F107" s="11">
+        <v>329827</v>
+      </c>
+      <c r="G107" s="11">
+        <v>998085</v>
+      </c>
+      <c r="H107" s="11">
+        <v>450104</v>
+      </c>
+      <c r="I107" s="11">
+        <v>203883</v>
+      </c>
+    </row>
+    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B108" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C107" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D107" s="11"/>
-      <c r="E107" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F107" s="11">
-        <v>120400</v>
-      </c>
-      <c r="G107" s="11">
-        <v>329827</v>
-      </c>
-      <c r="H107" s="11">
-        <v>998085</v>
-      </c>
-      <c r="I107" s="11">
-        <v>450104</v>
-      </c>
-    </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B108" s="8" t="s">
+      <c r="C108" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D108" s="9"/>
+      <c r="E108" s="9">
+        <v>223886</v>
+      </c>
+      <c r="F108" s="9">
+        <v>262881</v>
+      </c>
+      <c r="G108" s="9">
+        <v>329136</v>
+      </c>
+      <c r="H108" s="9">
+        <v>432886</v>
+      </c>
+      <c r="I108" s="9">
+        <v>1097154</v>
+      </c>
+    </row>
+    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B109" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C108" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D108" s="9"/>
-      <c r="E108" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F108" s="9">
-        <v>223886</v>
-      </c>
-      <c r="G108" s="9">
-        <v>262881</v>
-      </c>
-      <c r="H108" s="9">
-        <v>329136</v>
-      </c>
-      <c r="I108" s="9">
-        <v>432886</v>
-      </c>
-    </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B109" s="10" t="s">
+      <c r="C109" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D109" s="11"/>
+      <c r="E109" s="11">
+        <v>85962</v>
+      </c>
+      <c r="F109" s="11">
+        <v>107076</v>
+      </c>
+      <c r="G109" s="11">
+        <v>77233</v>
+      </c>
+      <c r="H109" s="11">
+        <v>266796</v>
+      </c>
+      <c r="I109" s="11">
+        <v>343335</v>
+      </c>
+    </row>
+    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B110" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C109" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D109" s="11"/>
-      <c r="E109" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F109" s="11">
-        <v>85962</v>
-      </c>
-      <c r="G109" s="11">
-        <v>107076</v>
-      </c>
-      <c r="H109" s="11">
-        <v>77233</v>
-      </c>
-      <c r="I109" s="11">
-        <v>266796</v>
-      </c>
-    </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B110" s="8" t="s">
-        <v>30</v>
-      </c>
       <c r="C110" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D110" s="9"/>
-      <c r="E110" s="9" t="s">
-        <v>26</v>
+      <c r="E110" s="9">
+        <v>111836</v>
       </c>
       <c r="F110" s="9">
-        <v>111836</v>
+        <v>295440</v>
       </c>
       <c r="G110" s="9">
-        <v>295440</v>
+        <v>1304016</v>
       </c>
       <c r="H110" s="9">
-        <v>1304016</v>
+        <v>1395174</v>
       </c>
       <c r="I110" s="9">
-        <v>1395174</v>
-      </c>
-    </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1273406</v>
+      </c>
+    </row>
+    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B111" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C111" s="13"/>
       <c r="D111" s="13"/>
       <c r="E111" s="13">
-        <v>0</v>
+        <v>570337</v>
       </c>
       <c r="F111" s="13">
-        <v>570337</v>
+        <v>1077629</v>
       </c>
       <c r="G111" s="13">
-        <v>1077629</v>
+        <v>3107157</v>
       </c>
       <c r="H111" s="13">
-        <v>3107157</v>
+        <v>2882635</v>
       </c>
       <c r="I111" s="13">
-        <v>2882635</v>
-      </c>
-    </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3436172</v>
+      </c>
+    </row>
+    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -2709,7 +2706,7 @@
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
     </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
@@ -2719,7 +2716,7 @@
       <c r="H113" s="1"/>
       <c r="I113" s="1"/>
     </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -2729,9 +2726,9 @@
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
     </row>
-    <row r="115" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B115" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C115" s="6"/>
       <c r="D115" s="6"/>
@@ -2751,7 +2748,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -2761,127 +2758,127 @@
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
     </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B117" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C117" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D117" s="9"/>
-      <c r="E117" s="9" t="s">
+      <c r="E117" s="9">
+        <v>158543307</v>
+      </c>
+      <c r="F117" s="9">
+        <v>256845455</v>
+      </c>
+      <c r="G117" s="9">
+        <v>592841727</v>
+      </c>
+      <c r="H117" s="9">
+        <v>582875731</v>
+      </c>
+      <c r="I117" s="9">
+        <v>639535985</v>
+      </c>
+    </row>
+    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B118" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F117" s="9">
-        <v>158543307</v>
-      </c>
-      <c r="G117" s="9">
-        <v>256845455</v>
-      </c>
-      <c r="H117" s="9">
-        <v>592841727</v>
-      </c>
-      <c r="I117" s="9">
-        <v>582875731</v>
-      </c>
-    </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B118" s="10" t="s">
+      <c r="C118" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D118" s="11"/>
+      <c r="E118" s="11">
+        <v>81134715</v>
+      </c>
+      <c r="F118" s="11">
+        <v>79730482</v>
+      </c>
+      <c r="G118" s="11">
+        <v>118626089</v>
+      </c>
+      <c r="H118" s="11">
+        <v>246989607</v>
+      </c>
+      <c r="I118" s="11">
+        <v>393103930</v>
+      </c>
+    </row>
+    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B119" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C118" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D118" s="11"/>
-      <c r="E118" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F118" s="11">
-        <v>81134715</v>
-      </c>
-      <c r="G118" s="11">
-        <v>79730482</v>
-      </c>
-      <c r="H118" s="11">
-        <v>118626089</v>
-      </c>
-      <c r="I118" s="11">
-        <v>246989607</v>
-      </c>
-    </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B119" s="8" t="s">
+      <c r="C119" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D119" s="9"/>
+      <c r="E119" s="9">
+        <v>72588865</v>
+      </c>
+      <c r="F119" s="9">
+        <v>131648410</v>
+      </c>
+      <c r="G119" s="9">
+        <v>164821540</v>
+      </c>
+      <c r="H119" s="9">
+        <v>326200198</v>
+      </c>
+      <c r="I119" s="9">
+        <v>543144291</v>
+      </c>
+    </row>
+    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B120" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C119" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D119" s="9"/>
-      <c r="E119" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F119" s="9">
-        <v>72588865</v>
-      </c>
-      <c r="G119" s="9">
-        <v>131648410</v>
-      </c>
-      <c r="H119" s="9">
-        <v>164821540</v>
-      </c>
-      <c r="I119" s="9">
-        <v>326200198</v>
-      </c>
-    </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B120" s="10" t="s">
+      <c r="C120" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D120" s="11"/>
+      <c r="E120" s="11">
+        <v>44841085</v>
+      </c>
+      <c r="F120" s="11">
+        <v>89543750</v>
+      </c>
+      <c r="G120" s="11">
+        <v>95689008</v>
+      </c>
+      <c r="H120" s="11">
+        <v>128936561</v>
+      </c>
+      <c r="I120" s="11">
+        <v>280247899</v>
+      </c>
+    </row>
+    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B121" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C120" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D120" s="11"/>
-      <c r="E120" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F120" s="11">
-        <v>44841085</v>
-      </c>
-      <c r="G120" s="11">
-        <v>89543750</v>
-      </c>
-      <c r="H120" s="11">
-        <v>95689008</v>
-      </c>
-      <c r="I120" s="11">
-        <v>128936561</v>
-      </c>
-    </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B121" s="8" t="s">
-        <v>30</v>
-      </c>
       <c r="C121" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D121" s="9"/>
-      <c r="E121" s="9" t="s">
-        <v>26</v>
+      <c r="E121" s="9">
+        <v>76375643</v>
       </c>
       <c r="F121" s="9">
-        <v>76375643</v>
+        <v>85176377</v>
       </c>
       <c r="G121" s="9">
-        <v>85176377</v>
+        <v>130727661</v>
       </c>
       <c r="H121" s="9">
-        <v>130727661</v>
+        <v>216075559</v>
       </c>
       <c r="I121" s="9">
-        <v>216075559</v>
-      </c>
-    </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
+        <v>219263555</v>
+      </c>
+    </row>
+    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
@@ -2891,7 +2888,7 @@
       <c r="H122" s="1"/>
       <c r="I122" s="1"/>
     </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
@@ -2901,7 +2898,7 @@
       <c r="H123" s="1"/>
       <c r="I123" s="1"/>
     </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
@@ -2911,9 +2908,9 @@
       <c r="H124" s="1"/>
       <c r="I124" s="1"/>
     </row>
-    <row r="125" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B125" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C125" s="6"/>
       <c r="D125" s="6"/>
@@ -2933,7 +2930,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
@@ -2943,127 +2940,127 @@
       <c r="H126" s="1"/>
       <c r="I126" s="1"/>
     </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B127" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D127" s="9"/>
-      <c r="E127" s="9" t="s">
+      <c r="E127" s="9">
+        <v>231816140</v>
+      </c>
+      <c r="F127" s="9">
+        <v>567897558</v>
+      </c>
+      <c r="G127" s="9">
+        <v>735216735</v>
+      </c>
+      <c r="H127" s="9">
+        <v>1286755031</v>
+      </c>
+      <c r="I127" s="9">
+        <v>1593010069</v>
+      </c>
+    </row>
+    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B128" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F127" s="9">
-        <v>231816140</v>
-      </c>
-      <c r="G127" s="9">
-        <v>567897558</v>
-      </c>
-      <c r="H127" s="9">
-        <v>735216735</v>
-      </c>
-      <c r="I127" s="9">
-        <v>1286755031</v>
-      </c>
-    </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B128" s="10" t="s">
+      <c r="C128" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D128" s="11"/>
+      <c r="E128" s="11">
+        <v>81075305</v>
+      </c>
+      <c r="F128" s="11">
+        <v>86834634</v>
+      </c>
+      <c r="G128" s="11">
+        <v>294862567</v>
+      </c>
+      <c r="H128" s="11">
+        <v>446209756</v>
+      </c>
+      <c r="I128" s="11">
+        <v>520556353</v>
+      </c>
+    </row>
+    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B129" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C128" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D128" s="11"/>
-      <c r="E128" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F128" s="11">
-        <v>81075305</v>
-      </c>
-      <c r="G128" s="11">
-        <v>86834634</v>
-      </c>
-      <c r="H128" s="11">
-        <v>294862567</v>
-      </c>
-      <c r="I128" s="11">
-        <v>446209756</v>
-      </c>
-    </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B129" s="8" t="s">
+      <c r="C129" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D129" s="9"/>
+      <c r="E129" s="9">
+        <v>106764949</v>
+      </c>
+      <c r="F129" s="9">
+        <v>154723404</v>
+      </c>
+      <c r="G129" s="9">
+        <v>201086190</v>
+      </c>
+      <c r="H129" s="9">
+        <v>455487709</v>
+      </c>
+      <c r="I129" s="9">
+        <v>465803062</v>
+      </c>
+    </row>
+    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B130" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C129" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D129" s="9"/>
-      <c r="E129" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F129" s="9">
-        <v>106764949</v>
-      </c>
-      <c r="G129" s="9">
-        <v>154723404</v>
-      </c>
-      <c r="H129" s="9">
-        <v>201086190</v>
-      </c>
-      <c r="I129" s="9">
-        <v>455487709</v>
-      </c>
-    </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B130" s="10" t="s">
+      <c r="C130" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D130" s="11"/>
+      <c r="E130" s="11">
+        <v>70336267</v>
+      </c>
+      <c r="F130" s="11">
+        <v>102622683</v>
+      </c>
+      <c r="G130" s="11">
+        <v>118840214</v>
+      </c>
+      <c r="H130" s="11">
+        <v>258851646</v>
+      </c>
+      <c r="I130" s="11">
+        <v>356592225</v>
+      </c>
+    </row>
+    <row r="131" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B131" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C130" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D130" s="11"/>
-      <c r="E130" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F130" s="11">
-        <v>70336267</v>
-      </c>
-      <c r="G130" s="11">
-        <v>102622683</v>
-      </c>
-      <c r="H130" s="11">
-        <v>118840214</v>
-      </c>
-      <c r="I130" s="11">
-        <v>258851646</v>
-      </c>
-    </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B131" s="8" t="s">
-        <v>30</v>
-      </c>
       <c r="C131" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D131" s="9"/>
-      <c r="E131" s="9" t="s">
-        <v>26</v>
+      <c r="E131" s="9">
+        <v>89725455</v>
       </c>
       <c r="F131" s="9">
-        <v>89725455</v>
+        <v>104752563</v>
       </c>
       <c r="G131" s="9">
-        <v>104752563</v>
+        <v>214544238</v>
       </c>
       <c r="H131" s="9">
-        <v>214544238</v>
+        <v>353243934</v>
       </c>
       <c r="I131" s="9">
-        <v>353243934</v>
-      </c>
-    </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.25">
+        <v>521852338</v>
+      </c>
+    </row>
+    <row r="132" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -3073,7 +3070,7 @@
       <c r="H132" s="1"/>
       <c r="I132" s="1"/>
     </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
@@ -3083,7 +3080,7 @@
       <c r="H133" s="1"/>
       <c r="I133" s="1"/>
     </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
@@ -3093,9 +3090,9 @@
       <c r="H134" s="1"/>
       <c r="I134" s="1"/>
     </row>
-    <row r="135" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B135" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C135" s="6"/>
       <c r="D135" s="6"/>
@@ -3115,7 +3112,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
@@ -3125,127 +3122,127 @@
       <c r="H136" s="1"/>
       <c r="I136" s="1"/>
     </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B137" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C137" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D137" s="9"/>
-      <c r="E137" s="9" t="s">
+      <c r="E137" s="9">
+        <v>223453537</v>
+      </c>
+      <c r="F137" s="9">
+        <v>545389933</v>
+      </c>
+      <c r="G137" s="9">
+        <v>779527034</v>
+      </c>
+      <c r="H137" s="9">
+        <v>1199264872</v>
+      </c>
+      <c r="I137" s="9">
+        <v>1526346753</v>
+      </c>
+    </row>
+    <row r="138" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B138" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F137" s="9">
-        <v>223453537</v>
-      </c>
-      <c r="G137" s="9">
-        <v>545389933</v>
-      </c>
-      <c r="H137" s="9">
-        <v>779527034</v>
-      </c>
-      <c r="I137" s="9">
-        <v>1199264872</v>
-      </c>
-    </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B138" s="10" t="s">
+      <c r="C138" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D138" s="11"/>
+      <c r="E138" s="11">
+        <v>81531806</v>
+      </c>
+      <c r="F138" s="11">
+        <v>84540773</v>
+      </c>
+      <c r="G138" s="11">
+        <v>136392963</v>
+      </c>
+      <c r="H138" s="11">
+        <v>307254854</v>
+      </c>
+      <c r="I138" s="11">
+        <v>490438799</v>
+      </c>
+    </row>
+    <row r="139" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B139" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C138" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D138" s="11"/>
-      <c r="E138" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F138" s="11">
-        <v>81531806</v>
-      </c>
-      <c r="G138" s="11">
-        <v>84540773</v>
-      </c>
-      <c r="H138" s="11">
-        <v>136392963</v>
-      </c>
-      <c r="I138" s="11">
-        <v>307254854</v>
-      </c>
-    </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B139" s="8" t="s">
+      <c r="C139" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D139" s="9"/>
+      <c r="E139" s="9">
+        <v>95552746</v>
+      </c>
+      <c r="F139" s="9">
+        <v>146631532</v>
+      </c>
+      <c r="G139" s="9">
+        <v>176915737</v>
+      </c>
+      <c r="H139" s="9">
+        <v>428163552</v>
+      </c>
+      <c r="I139" s="9">
+        <v>478270113</v>
+      </c>
+    </row>
+    <row r="140" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B140" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C139" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D139" s="9"/>
-      <c r="E139" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F139" s="9">
-        <v>95552746</v>
-      </c>
-      <c r="G139" s="9">
-        <v>146631532</v>
-      </c>
-      <c r="H139" s="9">
-        <v>176915737</v>
-      </c>
-      <c r="I139" s="9">
-        <v>428163552</v>
-      </c>
-    </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B140" s="10" t="s">
+      <c r="C140" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D140" s="11"/>
+      <c r="E140" s="11">
+        <v>64554986</v>
+      </c>
+      <c r="F140" s="11">
+        <v>101900136</v>
+      </c>
+      <c r="G140" s="11">
+        <v>114549946</v>
+      </c>
+      <c r="H140" s="11">
+        <v>245233287</v>
+      </c>
+      <c r="I140" s="11">
+        <v>349204495</v>
+      </c>
+    </row>
+    <row r="141" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B141" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C140" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D140" s="11"/>
-      <c r="E140" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F140" s="11">
-        <v>64554986</v>
-      </c>
-      <c r="G140" s="11">
-        <v>101900136</v>
-      </c>
-      <c r="H140" s="11">
-        <v>114549946</v>
-      </c>
-      <c r="I140" s="11">
-        <v>245233287</v>
-      </c>
-    </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B141" s="8" t="s">
-        <v>30</v>
-      </c>
       <c r="C141" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D141" s="9"/>
-      <c r="E141" s="9" t="s">
-        <v>26</v>
+      <c r="E141" s="9">
+        <v>89617831</v>
       </c>
       <c r="F141" s="9">
-        <v>89617831</v>
+        <v>100130997</v>
       </c>
       <c r="G141" s="9">
-        <v>100130997</v>
+        <v>175009210</v>
       </c>
       <c r="H141" s="9">
-        <v>175009210</v>
+        <v>357405997</v>
       </c>
       <c r="I141" s="9">
-        <v>357405997</v>
-      </c>
-    </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.25">
+        <v>441737927</v>
+      </c>
+    </row>
+    <row r="142" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
@@ -3255,7 +3252,7 @@
       <c r="H142" s="1"/>
       <c r="I142" s="1"/>
     </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
@@ -3265,7 +3262,7 @@
       <c r="H143" s="1"/>
       <c r="I143" s="1"/>
     </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
@@ -3275,9 +3272,9 @@
       <c r="H144" s="1"/>
       <c r="I144" s="1"/>
     </row>
-    <row r="145" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B145" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C145" s="6"/>
       <c r="D145" s="6"/>
@@ -3297,7 +3294,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
@@ -3307,7 +3304,7 @@
       <c r="H146" s="1"/>
       <c r="I146" s="1"/>
     </row>
-    <row r="147" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B147" s="8" t="s">
         <v>24</v>
       </c>
@@ -3315,119 +3312,119 @@
         <v>25</v>
       </c>
       <c r="D147" s="9"/>
-      <c r="E147" s="9" t="s">
+      <c r="E147" s="9">
+        <v>256845455</v>
+      </c>
+      <c r="F147" s="9">
+        <v>588607143</v>
+      </c>
+      <c r="G147" s="9">
+        <v>582875731</v>
+      </c>
+      <c r="H147" s="9">
+        <v>639535985</v>
+      </c>
+      <c r="I147" s="9">
+        <v>898429809</v>
+      </c>
+    </row>
+    <row r="148" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B148" s="10" t="s">
         <v>26</v>
-      </c>
-      <c r="F147" s="9">
-        <v>256845455</v>
-      </c>
-      <c r="G147" s="9">
-        <v>588607143</v>
-      </c>
-      <c r="H147" s="9">
-        <v>582875731</v>
-      </c>
-      <c r="I147" s="9">
-        <v>639535985</v>
-      </c>
-    </row>
-    <row r="148" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B148" s="10" t="s">
-        <v>27</v>
       </c>
       <c r="C148" s="11" t="s">
         <v>25</v>
       </c>
       <c r="D148" s="11"/>
-      <c r="E148" s="11" t="s">
-        <v>26</v>
+      <c r="E148" s="11">
+        <v>79840849</v>
       </c>
       <c r="F148" s="11">
-        <v>79840849</v>
+        <v>87094534</v>
       </c>
       <c r="G148" s="11">
-        <v>87094534</v>
+        <v>387154771</v>
       </c>
       <c r="H148" s="11">
-        <v>387154771</v>
+        <v>393103930</v>
       </c>
       <c r="I148" s="11">
-        <v>393103930</v>
-      </c>
-    </row>
-    <row r="149" spans="2:9" x14ac:dyDescent="0.25">
+        <v>579213068</v>
+      </c>
+    </row>
+    <row r="149" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B149" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C149" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D149" s="9"/>
-      <c r="E149" s="9" t="s">
-        <v>26</v>
+      <c r="E149" s="9">
+        <v>132476923</v>
       </c>
       <c r="F149" s="9">
-        <v>132476923</v>
+        <v>164506258</v>
       </c>
       <c r="G149" s="9">
-        <v>164506258</v>
+        <v>326200198</v>
       </c>
       <c r="H149" s="9">
-        <v>326200198</v>
+        <v>543144291</v>
       </c>
       <c r="I149" s="9">
-        <v>543144291</v>
-      </c>
-    </row>
-    <row r="150" spans="2:9" x14ac:dyDescent="0.25">
+        <v>452248145</v>
+      </c>
+    </row>
+    <row r="150" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B150" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C150" s="11" t="s">
         <v>25</v>
       </c>
       <c r="D150" s="11"/>
-      <c r="E150" s="11" t="s">
-        <v>26</v>
+      <c r="E150" s="11">
+        <v>89543750</v>
       </c>
       <c r="F150" s="11">
-        <v>89543750</v>
+        <v>95689008</v>
       </c>
       <c r="G150" s="11">
-        <v>95689008</v>
+        <v>128936561</v>
       </c>
       <c r="H150" s="11">
-        <v>128936561</v>
+        <v>280247899</v>
       </c>
       <c r="I150" s="11">
-        <v>280247899</v>
-      </c>
-    </row>
-    <row r="151" spans="2:9" x14ac:dyDescent="0.25">
+        <v>340272547</v>
+      </c>
+    </row>
+    <row r="151" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B151" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C151" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D151" s="9"/>
-      <c r="E151" s="9" t="s">
-        <v>26</v>
+      <c r="E151" s="9">
+        <v>84213855</v>
       </c>
       <c r="F151" s="9">
-        <v>84213855</v>
+        <v>105176219</v>
       </c>
       <c r="G151" s="9">
-        <v>105176219</v>
+        <v>216075559</v>
       </c>
       <c r="H151" s="9">
-        <v>216075559</v>
+        <v>219263555</v>
       </c>
       <c r="I151" s="9">
-        <v>219263555</v>
-      </c>
-    </row>
-    <row r="152" spans="2:9" x14ac:dyDescent="0.25">
+        <v>246021252</v>
+      </c>
+    </row>
+    <row r="152" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
@@ -3437,7 +3434,7 @@
       <c r="H152" s="1"/>
       <c r="I152" s="1"/>
     </row>
-    <row r="153" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
@@ -3447,7 +3444,7 @@
       <c r="H153" s="1"/>
       <c r="I153" s="1"/>
     </row>
-    <row r="154" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
@@ -3457,9 +3454,9 @@
       <c r="H154" s="1"/>
       <c r="I154" s="1"/>
     </row>
-    <row r="155" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B155" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C155" s="6"/>
       <c r="D155" s="6"/>
@@ -3479,7 +3476,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="156" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
@@ -3489,31 +3486,31 @@
       <c r="H156" s="1"/>
       <c r="I156" s="1"/>
     </row>
-    <row r="157" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B157" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C157" s="9"/>
       <c r="D157" s="9"/>
       <c r="E157" s="9">
-        <v>0</v>
+        <v>2687</v>
       </c>
       <c r="F157" s="9">
-        <v>2687</v>
+        <v>3828</v>
       </c>
       <c r="G157" s="9">
-        <v>3828</v>
+        <v>7160</v>
       </c>
       <c r="H157" s="9">
-        <v>7160</v>
+        <v>10270</v>
       </c>
       <c r="I157" s="9">
-        <v>10270</v>
-      </c>
-    </row>
-    <row r="158" spans="2:9" x14ac:dyDescent="0.25">
+        <v>23216</v>
+      </c>
+    </row>
+    <row r="158" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B158" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C158" s="11"/>
       <c r="D158" s="11"/>
@@ -3533,9 +3530,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B159" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C159" s="9"/>
       <c r="D159" s="9"/>
@@ -3555,9 +3552,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B160" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C160" s="11"/>
       <c r="D160" s="11"/>
@@ -3577,97 +3574,97 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B161" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C161" s="9"/>
       <c r="D161" s="9"/>
       <c r="E161" s="9">
-        <v>34731</v>
+        <v>49536</v>
       </c>
       <c r="F161" s="9">
-        <v>49536</v>
+        <v>163211</v>
       </c>
       <c r="G161" s="9">
-        <v>163211</v>
+        <v>226122</v>
       </c>
       <c r="H161" s="9">
-        <v>226122</v>
+        <v>449572</v>
       </c>
       <c r="I161" s="9">
-        <v>449572</v>
-      </c>
-    </row>
-    <row r="162" spans="2:9" x14ac:dyDescent="0.25">
+        <v>588695</v>
+      </c>
+    </row>
+    <row r="162" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B162" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C162" s="11"/>
       <c r="D162" s="11"/>
       <c r="E162" s="11">
-        <v>37169</v>
+        <v>35325</v>
       </c>
       <c r="F162" s="11">
-        <v>35325</v>
+        <v>44158</v>
       </c>
       <c r="G162" s="11">
-        <v>44158</v>
+        <v>45747</v>
       </c>
       <c r="H162" s="11">
-        <v>45747</v>
+        <v>118870</v>
       </c>
       <c r="I162" s="11">
-        <v>118870</v>
-      </c>
-    </row>
-    <row r="163" spans="2:9" x14ac:dyDescent="0.25">
+        <v>142968</v>
+      </c>
+    </row>
+    <row r="163" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B163" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C163" s="9"/>
       <c r="D163" s="9"/>
       <c r="E163" s="9">
-        <v>53590</v>
+        <v>59381</v>
       </c>
       <c r="F163" s="9">
-        <v>59381</v>
+        <v>63738</v>
       </c>
       <c r="G163" s="9">
-        <v>63738</v>
+        <v>86703</v>
       </c>
       <c r="H163" s="9">
-        <v>86703</v>
+        <v>123731</v>
       </c>
       <c r="I163" s="9">
-        <v>123731</v>
-      </c>
-    </row>
-    <row r="164" spans="2:9" x14ac:dyDescent="0.25">
+        <v>172908</v>
+      </c>
+    </row>
+    <row r="164" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B164" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C164" s="11"/>
       <c r="D164" s="11"/>
       <c r="E164" s="11">
-        <v>221725</v>
+        <v>221525</v>
       </c>
       <c r="F164" s="11">
-        <v>221525</v>
+        <v>321100</v>
       </c>
       <c r="G164" s="11">
-        <v>321100</v>
+        <v>487608</v>
       </c>
       <c r="H164" s="11">
-        <v>487608</v>
+        <v>691787</v>
       </c>
       <c r="I164" s="11">
-        <v>691787</v>
-      </c>
-    </row>
-    <row r="165" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1097238</v>
+      </c>
+    </row>
+    <row r="165" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B165" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C165" s="9"/>
       <c r="D165" s="9"/>
@@ -3687,48 +3684,48 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B166" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C166" s="11"/>
       <c r="D166" s="11"/>
       <c r="E166" s="11">
-        <v>121071</v>
+        <v>100786</v>
       </c>
       <c r="F166" s="11">
-        <v>100786</v>
+        <v>93428</v>
       </c>
       <c r="G166" s="11">
-        <v>93428</v>
+        <v>168309</v>
       </c>
       <c r="H166" s="11">
-        <v>168309</v>
+        <v>266506</v>
       </c>
       <c r="I166" s="11">
-        <v>266506</v>
-      </c>
-    </row>
-    <row r="167" spans="2:9" x14ac:dyDescent="0.25">
+        <v>344532</v>
+      </c>
+    </row>
+    <row r="167" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B167" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C167" s="15"/>
       <c r="D167" s="15"/>
       <c r="E167" s="15">
-        <v>468286</v>
+        <v>469240</v>
       </c>
       <c r="F167" s="15">
-        <v>469240</v>
+        <v>689463</v>
       </c>
       <c r="G167" s="15">
-        <v>689463</v>
+        <v>1021649</v>
       </c>
       <c r="H167" s="15">
-        <v>1021649</v>
+        <v>1660736</v>
       </c>
       <c r="I167" s="15">
-        <v>1660736</v>
+        <v>2369557</v>
       </c>
     </row>
   </sheetData>
